--- a/Montana/WaterAllocation/MT_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Montana/WaterAllocation/MT_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1FFC13-AEBC-40BB-B4C3-CB8C10B3135E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11DD78-7BAF-46EA-8739-947BAF4FD3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -798,9 +798,6 @@
     <t>https://opendata-mtdnrc.hub.arcgis.com/datasets/wade-pods-pous</t>
   </si>
   <si>
-    <t>MDNRC</t>
-  </si>
-  <si>
     <t>(blank)</t>
   </si>
   <si>
@@ -808,10 +805,6 @@
   </si>
   <si>
     <t>http://dnrc.mt.gov/divisions/water/water-rights</t>
-  </si>
-  <si>
-    <t>MT_Water Allocation Adj, 
-MT_Water Allocation App</t>
   </si>
   <si>
     <t>Surface Ground Water,
@@ -825,9 +818,6 @@
     <t>WR_NUMBER</t>
   </si>
   <si>
-    <t>MT_Consumptive Use</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Consumptive Use</t>
   </si>
   <si>
@@ -895,9 +885,6 @@
   </si>
   <si>
     <t>ABST_LINK</t>
-  </si>
-  <si>
-    <t>11/20/2020</t>
   </si>
   <si>
     <t>WR_TYPE</t>
@@ -986,6 +973,19 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>MTwr_M1
+MTwr_M2</t>
+  </si>
+  <si>
+    <t>MTwr_V1</t>
+  </si>
+  <si>
+    <t>MTwr_O1</t>
+  </si>
+  <si>
+    <t>03/11/2022</t>
   </si>
 </sst>
 </file>
@@ -2527,17 +2527,17 @@
         <v>240</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2545,22 +2545,22 @@
         <v>243</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +2576,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2679,7 +2679,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="63"/>
@@ -2707,7 +2707,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="48"/>
@@ -2735,7 +2735,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="48"/>
@@ -2763,7 +2763,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="48"/>
@@ -2791,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="48"/>
@@ -2819,7 +2819,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="48"/>
@@ -2845,7 +2845,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="48"/>
@@ -2873,7 +2873,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="48"/>
@@ -2901,7 +2901,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="48"/>
@@ -2938,7 +2938,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3035,7 +3035,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="100" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
@@ -3259,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -3287,7 +3287,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -3418,7 +3418,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
@@ -3446,7 +3446,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
@@ -3474,7 +3474,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
@@ -3502,7 +3502,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
@@ -3530,7 +3530,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -3558,7 +3558,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -3586,7 +3586,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -3614,7 +3614,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -3642,7 +3642,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -3794,7 +3794,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="68"/>
@@ -3820,7 +3820,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>38</v>
@@ -3850,7 +3850,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>38</v>
@@ -3910,13 +3910,13 @@
         <v>38</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>249</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="80" t="s">
@@ -3940,7 +3940,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -3970,13 +3970,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>249</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="80" t="s">
@@ -4107,7 +4107,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="63"/>
@@ -4133,7 +4133,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="48"/>
@@ -4183,7 +4183,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -4237,7 +4237,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4265,7 +4265,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4301,7 +4301,7 @@
         <v>249</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H11" s="85"/>
       <c r="I11" s="86" t="s">
@@ -4325,7 +4325,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -4391,7 +4391,7 @@
         <v>249</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H14" s="89"/>
       <c r="I14" s="80">
@@ -4415,7 +4415,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -4445,7 +4445,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -4501,13 +4501,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>249</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H18" s="85"/>
       <c r="I18" s="80" t="s">
@@ -4537,7 +4537,7 @@
         <v>249</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H19" s="87"/>
       <c r="I19" s="80">
@@ -4561,7 +4561,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="107" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F20" s="108" t="s">
         <v>38</v>
@@ -4574,7 +4574,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="114" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4597,7 +4597,7 @@
         <v>249</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H21" s="85"/>
       <c r="I21" s="80" t="s">
@@ -4621,7 +4621,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>38</v>
@@ -4651,7 +4651,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>38</v>
@@ -4680,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4938,7 +4938,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
@@ -4966,7 +4966,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="32"/>
@@ -4994,7 +4994,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="32"/>
@@ -5022,7 +5022,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="32"/>
@@ -5050,7 +5050,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="73"/>
@@ -5078,7 +5078,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>38</v>
@@ -5110,7 +5110,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -5142,7 +5142,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -5174,7 +5174,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5206,7 +5206,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -5238,7 +5238,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -5270,7 +5270,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -5302,7 +5302,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -5340,7 +5340,7 @@
         <v>249</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H22" s="92" t="s">
         <v>38</v>
@@ -5372,7 +5372,7 @@
         <v>249</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H23" s="92" t="s">
         <v>38</v>
@@ -5404,7 +5404,7 @@
         <v>249</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H24" s="92" t="s">
         <v>38</v>
@@ -5436,7 +5436,7 @@
         <v>249</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H25" s="92" t="s">
         <v>38</v>
@@ -5468,7 +5468,7 @@
         <v>249</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H26" s="92" t="s">
         <v>38</v>
@@ -5494,7 +5494,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>38</v>
@@ -5532,7 +5532,7 @@
         <v>249</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H28" s="92" t="s">
         <v>38</v>
@@ -5564,7 +5564,7 @@
         <v>249</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H29" s="92" t="s">
         <v>38</v>
@@ -5596,7 +5596,7 @@
         <v>249</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H30" s="92" t="s">
         <v>38</v>
@@ -5628,7 +5628,7 @@
         <v>249</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H31" s="92" t="s">
         <v>38</v>
@@ -5660,7 +5660,7 @@
         <v>249</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H32" s="92" t="s">
         <v>38</v>
@@ -5686,7 +5686,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>38</v>
@@ -5718,7 +5718,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -5750,7 +5750,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -5782,7 +5782,7 @@
         <v>38</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -5820,7 +5820,7 @@
         <v>249</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H37" s="92" t="s">
         <v>38</v>
@@ -5872,7 +5872,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
@@ -5910,7 +5910,7 @@
         <v>249</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H40" s="89"/>
       <c r="I40" s="93" t="s">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>38</v>
@@ -5966,7 +5966,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6004,10 +6004,10 @@
         <v>38</v>
       </c>
       <c r="I43" s="117" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J43" s="118" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -6030,7 +6030,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>38</v>
@@ -6062,7 +6062,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6094,7 +6094,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -6126,7 +6126,7 @@
         <v>38</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>38</v>

--- a/Montana/WaterAllocation/MT_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Montana/WaterAllocation/MT_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11DD78-7BAF-46EA-8739-947BAF4FD3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100F0AAB-9064-423B-8CF0-BC3B43A396D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="309">
   <si>
     <t>Name</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -986,6 +983,15 @@
   </si>
   <si>
     <t>03/11/2022</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>MTwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1789,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2132,6 +2138,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2503,64 +2512,64 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2618,10 +2627,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2662,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2679,7 +2688,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="63"/>
@@ -2690,7 +2699,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2707,7 +2716,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="48"/>
@@ -2718,7 +2727,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2735,7 +2744,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="48"/>
@@ -2746,7 +2755,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2763,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="48"/>
@@ -2774,7 +2783,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2791,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="48"/>
@@ -2799,10 +2808,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2819,7 +2828,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="48"/>
@@ -2828,7 +2837,7 @@
       </c>
       <c r="I9" s="84"/>
       <c r="J9" s="81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2845,7 +2854,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="48"/>
@@ -2856,7 +2865,7 @@
         <v>143</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2873,7 +2882,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="48"/>
@@ -2884,7 +2893,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2901,7 +2910,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="48"/>
@@ -2912,7 +2921,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2980,10 +2989,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3018,7 +3027,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3035,7 +3044,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="100" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
@@ -3046,7 +3055,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3074,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3102,7 +3111,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3130,7 +3139,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3158,7 +3167,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3186,7 +3195,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3214,7 +3223,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3242,7 +3251,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3259,7 +3268,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -3270,7 +3279,7 @@
         <v>144</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3287,7 +3296,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -3298,7 +3307,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3357,10 +3366,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3401,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3418,7 +3427,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
@@ -3429,7 +3438,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3446,7 +3455,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
@@ -3457,7 +3466,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3474,7 +3483,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
@@ -3485,7 +3494,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3502,7 +3511,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
@@ -3513,7 +3522,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3530,7 +3539,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -3541,7 +3550,7 @@
         <v>147</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3558,7 +3567,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -3569,7 +3578,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.3">
@@ -3586,7 +3595,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -3597,7 +3606,7 @@
         <v>148</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3614,7 +3623,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -3625,7 +3634,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3642,7 +3651,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -3653,7 +3662,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3741,10 +3750,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3777,7 +3786,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3794,7 +3803,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="68"/>
@@ -3803,7 +3812,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3820,7 +3829,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>38</v>
@@ -3833,7 +3842,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3850,7 +3859,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>38</v>
@@ -3863,7 +3872,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3893,7 +3902,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3910,20 +3919,20 @@
         <v>38</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3940,7 +3949,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -3953,7 +3962,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3970,20 +3979,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="80" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4050,10 +4059,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4092,7 +4101,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4107,7 +4116,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="63"/>
@@ -4116,7 +4125,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4133,7 +4142,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="48"/>
@@ -4142,7 +4151,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4166,7 +4175,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="111" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4183,7 +4192,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -4196,7 +4205,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4220,7 +4229,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4237,7 +4246,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4248,7 +4257,7 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="J9" s="111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4265,7 +4274,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4278,7 +4287,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4298,17 +4307,17 @@
         <v>38</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H11" s="85"/>
       <c r="I11" s="86" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4325,7 +4334,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -4338,7 +4347,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4358,7 +4367,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" s="48" t="s">
         <v>138</v>
@@ -4368,7 +4377,7 @@
         <v>122</v>
       </c>
       <c r="J13" s="111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4388,17 +4397,17 @@
         <v>38</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H14" s="89"/>
       <c r="I14" s="80">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4415,7 +4424,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -4428,7 +4437,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4445,7 +4454,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -4458,12 +4467,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4475,7 +4484,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -4485,7 +4494,7 @@
       </c>
       <c r="H17" s="90"/>
       <c r="I17" s="91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J17" s="113"/>
     </row>
@@ -4501,20 +4510,20 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H18" s="85"/>
       <c r="I18" s="80" t="s">
         <v>120</v>
       </c>
       <c r="J18" s="111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4534,17 +4543,17 @@
         <v>38</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H19" s="87"/>
       <c r="I19" s="80">
         <v>3703994</v>
       </c>
       <c r="J19" s="111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.3">
@@ -4561,7 +4570,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="107" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F20" s="108" t="s">
         <v>38</v>
@@ -4574,7 +4583,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4594,17 +4603,17 @@
         <v>38</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H21" s="85"/>
       <c r="I21" s="80" t="s">
         <v>121</v>
       </c>
       <c r="J21" s="111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4621,7 +4630,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>38</v>
@@ -4634,7 +4643,7 @@
         <v>141</v>
       </c>
       <c r="J22" s="111" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4651,7 +4660,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>38</v>
@@ -4664,7 +4673,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4678,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4723,10 +4732,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4761,7 +4770,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4793,7 +4802,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4825,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4857,7 +4866,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4889,7 +4898,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4921,15 +4930,15 @@
         <v>371091</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>38</v>
@@ -4937,24 +4946,18 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>295</v>
+      <c r="E9" s="119" t="s">
+        <v>307</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="81" t="s">
-        <v>190</v>
-      </c>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>67</v>
@@ -4965,8 +4968,8 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="71" t="s">
-        <v>305</v>
+      <c r="E10" s="70" t="s">
+        <v>294</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="32"/>
@@ -4977,12 +4980,12 @@
         <v>38</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>67</v>
@@ -4993,8 +4996,8 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>294</v>
+      <c r="E11" s="71" t="s">
+        <v>304</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="32"/>
@@ -5005,12 +5008,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>67</v>
@@ -5021,8 +5024,8 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>304</v>
+      <c r="E12" s="43" t="s">
+        <v>293</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="32"/>
@@ -5033,84 +5036,80 @@
         <v>38</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B14" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="81" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>38</v>
-      </c>
+      <c r="C14" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="73"/>
       <c r="H14" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="84">
-        <v>5363</v>
+      <c r="I14" s="93" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -5121,16 +5120,16 @@
       <c r="H15" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="88" t="s">
-        <v>160</v>
+      <c r="I15" s="84">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -5142,7 +5141,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -5157,24 +5156,24 @@
         <v>133</v>
       </c>
       <c r="J16" s="88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5186,27 +5185,27 @@
         <v>38</v>
       </c>
       <c r="I17" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="J17" s="88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -5218,18 +5217,18 @@
         <v>38</v>
       </c>
       <c r="I18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="88" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="J18" s="81" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>18</v>
@@ -5238,7 +5237,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -5250,18 +5249,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="81" t="s">
-        <v>195</v>
+        <v>138</v>
+      </c>
+      <c r="J19" s="88" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>18</v>
@@ -5270,7 +5269,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -5281,28 +5280,28 @@
       <c r="H20" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="88" t="s">
-        <v>160</v>
+      <c r="I20" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="81" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -5313,117 +5312,117 @@
       <c r="H21" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="84">
-        <v>5200</v>
-      </c>
-      <c r="J21" s="81" t="s">
-        <v>196</v>
+      <c r="I21" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="88" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
-        <v>244</v>
+      <c r="A22" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>285</v>
+        <v>251</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="H22" s="92" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="84">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="81" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>86</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="76" t="s">
+        <v>243</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>282</v>
+        <v>248</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>284</v>
       </c>
       <c r="H23" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="84" t="s">
-        <v>136</v>
+      <c r="I23" s="84">
+        <v>1</v>
       </c>
       <c r="J23" s="81" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="H24" s="92" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="81" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="39" t="s">
@@ -5433,120 +5432,120 @@
         <v>38</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="H25" s="92" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B26" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="81" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="H26" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="81" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>18</v>
+      <c r="C27" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>283</v>
       </c>
       <c r="H27" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="93" t="s">
-        <v>38</v>
+      <c r="I27" s="84" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="81" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="H28" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="94">
-        <v>44196</v>
+      <c r="I28" s="93" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="81" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>106</v>
@@ -5561,7 +5560,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>289</v>
@@ -5570,155 +5569,155 @@
         <v>38</v>
       </c>
       <c r="I29" s="94">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>281</v>
+        <v>248</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>288</v>
       </c>
       <c r="H30" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="84" t="s">
-        <v>133</v>
+      <c r="I30" s="94">
+        <v>43831</v>
       </c>
       <c r="J30" s="81" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="76" t="s">
-        <v>245</v>
+      <c r="A31" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="74" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H31" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="84">
+      <c r="I31" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="81" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="84">
         <v>0</v>
       </c>
-      <c r="J31" s="81" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="H32" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="93" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="81" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>18</v>
+      <c r="C33" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>252</v>
+      <c r="E33" s="74" t="s">
+        <v>38</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>38</v>
+        <v>248</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="H33" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -5732,13 +5731,13 @@
       <c r="I34" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="81" t="s">
-        <v>232</v>
+      <c r="J34" s="88" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -5750,7 +5749,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -5765,79 +5764,79 @@
         <v>133</v>
       </c>
       <c r="J35" s="81" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>306</v>
+        <v>20</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="32" t="s">
         <v>38</v>
       </c>
       <c r="H36" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="95">
-        <v>43874</v>
+      <c r="I36" s="84" t="s">
+        <v>133</v>
       </c>
       <c r="J36" s="81" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="95">
+        <v>43874</v>
+      </c>
+      <c r="J37" s="81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B38" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="H37" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="95">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>247</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>18</v>
@@ -5845,54 +5844,54 @@
       <c r="D38" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="H38" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="95">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="24">
         <v>0</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="92"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="88"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>252</v>
-      </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="81" t="s">
-        <v>207</v>
-      </c>
+      <c r="H39" s="92"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="88"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>69</v>
@@ -5904,69 +5903,69 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="H40" s="89"/>
+        <v>38</v>
+      </c>
+      <c r="H40" s="92" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="93" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="84" t="s">
-        <v>133</v>
+        <v>287</v>
+      </c>
+      <c r="H41" s="89"/>
+      <c r="I41" s="93" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="81" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -5977,92 +5976,92 @@
       <c r="H42" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="88" t="s">
-        <v>160</v>
+      <c r="I42" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="81" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="117" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="116" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="117" t="s">
+      <c r="J44" s="118" t="s">
         <v>301</v>
       </c>
-      <c r="J43" s="118" t="s">
-        <v>302</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="81" t="s">
-        <v>209</v>
-      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6073,28 +6072,28 @@
       <c r="H45" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="88" t="s">
-        <v>160</v>
+      <c r="I45" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="81" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -6106,47 +6105,79 @@
         <v>38</v>
       </c>
       <c r="I46" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="81" t="s">
-        <v>210</v>
+        <v>133</v>
+      </c>
+      <c r="J46" s="88" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B48" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C48" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="84" t="s">
+      <c r="D48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="81" t="s">
-        <v>211</v>
+      <c r="J48" s="81" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:P48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Montana/WaterAllocation/MT_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Montana/WaterAllocation/MT_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100F0AAB-9064-423B-8CF0-BC3B43A396D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA335D43-2026-4E04-8DF9-4E65A8B307C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="311">
   <si>
     <t>Name</t>
   </si>
@@ -799,17 +799,6 @@
   </si>
   <si>
     <t>Water rights that were established prior to July 1,1973 are administered by the Adjudication Bureau. Water rights that were established from July 1, 1973 through the present are administered by the New Appropriations Program.</t>
-  </si>
-  <si>
-    <t>http://dnrc.mt.gov/divisions/water/water-rights</t>
-  </si>
-  <si>
-    <t>Surface Ground Water,
-Surface Ground Water</t>
-  </si>
-  <si>
-    <t>Adjudication, 
-Appropriations</t>
   </si>
   <si>
     <t>WR_NUMBER</t>
@@ -972,10 +961,6 @@
     <t>WSWC defined owner tag.</t>
   </si>
   <si>
-    <t>MTwr_M1
-MTwr_M2</t>
-  </si>
-  <si>
     <t>MTwr_V1</t>
   </si>
   <si>
@@ -992,6 +977,24 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>MTwr_M1</t>
+  </si>
+  <si>
+    <t>Surface Ground Water</t>
+  </si>
+  <si>
+    <t>The Montana Department of Natural Resources and Conservation (DNRC) provides this product for informational purposes only. Data contained herein may not be suitable for legal, engineering or survey purposes. DNRC makes no representations or warranties of any kind with respect to the accuracy or completeness of this data and assumes no responsibility of suitable use for any particular purpose. By any user’s reliance on, dissemination of or reference to this data in whole or in part (use), the user has accepted all limitations of this product, including user’s acknowledgement that all spatial data products are dynamic and may change without prior notice and any use is subject to that understanding. User acknowledges that Montana Department of Natural Resources and Conservation is not liable for any damages incurred as a result of errors in this data and user acknowledges use at user’s own risk and discretion</t>
+  </si>
+  <si>
+    <t>Montana Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://dnrc.mt.gov/Water-Resources/Water-Rights/Understanding-Water-Rights/</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1792,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1908,9 +1911,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1923,15 +1923,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1995,7 +1992,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2041,13 +2038,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2075,9 +2066,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2114,16 +2102,12 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2139,8 +2123,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2506,12 +2493,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>236</v>
       </c>
       <c r="B1" t="s">
@@ -2519,57 +2506,57 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="94" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2584,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2604,32 +2591,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2655,50 +2642,50 @@
       <c r="D3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="80">
+      <c r="E3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="78">
         <v>11</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="79" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="80" t="s">
+      <c r="C4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="79" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2715,18 +2702,18 @@
       <c r="D5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="80" t="s">
+      <c r="E5" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="79" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2743,18 +2730,18 @@
       <c r="D6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="82">
+      <c r="F6" s="44"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="80">
         <v>0.5</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="79" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2771,18 +2758,18 @@
       <c r="D7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="81" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="79" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2799,18 +2786,18 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="83" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2827,20 +2814,20 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="81" t="s">
+      <c r="E9" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="82"/>
+      <c r="J9" s="79" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>7</v>
       </c>
@@ -2853,22 +2840,22 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="80" t="s">
+      <c r="E10" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="79" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
@@ -2881,22 +2868,22 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="80" t="s">
+      <c r="E11" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="79" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
@@ -2909,33 +2896,33 @@
       <c r="D12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="80" t="s">
+      <c r="E12" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="79" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="96"/>
+      <c r="E16" s="92"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="96"/>
+      <c r="E17" s="92"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{CFA857E9-2F70-4C25-8BFC-F469B28B0801}"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{BAC5F639-8EB8-4C4B-8A79-BB3897E28BA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3020,13 +3007,13 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="80">
+      <c r="H3" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="78">
         <v>16</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="79" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3043,18 +3030,18 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="100" t="s">
-        <v>303</v>
+      <c r="E4" s="95" t="s">
+        <v>299</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
-      <c r="H4" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="80" t="s">
+      <c r="H4" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="79" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3071,18 +3058,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="96">
         <v>1</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="80">
+      <c r="H5" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="78">
         <v>1</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="79" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3099,18 +3086,18 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="96" t="s">
         <v>111</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="80" t="s">
+      <c r="H6" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="79" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3127,18 +3114,18 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="96" t="s">
         <v>110</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="80" t="s">
+      <c r="H7" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="79" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3155,18 +3142,18 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="96" t="s">
         <v>113</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="80" t="s">
+      <c r="H8" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3183,18 +3170,18 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="96" t="s">
         <v>114</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="80" t="s">
+      <c r="H9" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="79" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3211,18 +3198,18 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="96">
         <v>10</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="80">
+      <c r="H10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="78">
         <v>10</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="79" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3239,18 +3226,18 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="96" t="s">
         <v>112</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="80" t="s">
+      <c r="H11" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="79" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3267,18 +3254,18 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="101" t="s">
-        <v>257</v>
+      <c r="E12" s="96" t="s">
+        <v>254</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="80" t="s">
+      <c r="H12" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="79" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3295,18 +3282,18 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="101" t="s">
-        <v>257</v>
+      <c r="E13" s="96" t="s">
+        <v>254</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="80" t="s">
+      <c r="H13" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="81" t="s">
+      <c r="J13" s="79" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3403,13 +3390,13 @@
       <c r="G3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="84">
+      <c r="H3" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="82">
         <v>1</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="79" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3426,18 +3413,18 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>304</v>
+      <c r="E4" s="40" t="s">
+        <v>300</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
-      <c r="H4" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="84" t="s">
+      <c r="H4" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="79" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3454,18 +3441,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="102" t="s">
-        <v>266</v>
+      <c r="E5" s="97" t="s">
+        <v>263</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="84" t="s">
+      <c r="H5" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="79" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3482,18 +3469,18 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>265</v>
+      <c r="E6" s="45" t="s">
+        <v>262</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="84" t="s">
+      <c r="H6" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="79" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3510,18 +3497,18 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="102" t="s">
-        <v>269</v>
+      <c r="E7" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="84" t="s">
+      <c r="H7" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="79" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3538,18 +3525,18 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>268</v>
+      <c r="E8" s="45" t="s">
+        <v>265</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="84" t="s">
+      <c r="H8" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3566,18 +3553,18 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>271</v>
+      <c r="E9" s="45" t="s">
+        <v>268</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="84" t="s">
+      <c r="H9" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="79" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3594,18 +3581,18 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>272</v>
+      <c r="E10" s="45" t="s">
+        <v>269</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="84" t="s">
+      <c r="H10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="79" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3622,18 +3609,18 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="102" t="s">
-        <v>267</v>
+      <c r="E11" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="84" t="s">
+      <c r="H11" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="79" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3651,17 +3638,17 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="84" t="s">
+      <c r="H12" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="79" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3727,32 +3714,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="H1" s="51"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -3780,38 +3767,38 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="80">
+      <c r="G3" s="64"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78">
         <v>34658</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="79" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="80" t="s">
+      <c r="C4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="79" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3828,20 +3815,20 @@
       <c r="D5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="81" t="s">
+      <c r="F5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="77"/>
+      <c r="I5" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3858,20 +3845,20 @@
       <c r="D6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="81" t="s">
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="77"/>
+      <c r="I6" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="79" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3888,20 +3875,20 @@
       <c r="D7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="80" t="s">
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="79" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3919,19 +3906,19 @@
         <v>38</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="F8" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="80" t="s">
+      <c r="G8" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="83"/>
+      <c r="I8" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3949,19 +3936,19 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="80">
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78">
         <v>17839</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="79" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3979,19 +3966,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="80" t="s">
+      <c r="G10" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="83"/>
+      <c r="I10" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="79" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4036,32 +4023,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="H1" s="51"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4096,35 +4083,35 @@
       <c r="G3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="80">
+      <c r="H3" s="77"/>
+      <c r="I3" s="78">
         <v>39035</v>
       </c>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="105" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="80" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="111" t="s">
+      <c r="J4" s="105" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4141,16 +4128,16 @@
       <c r="D5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="80" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="105" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4167,14 +4154,14 @@
       <c r="D6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="69"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="24"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="80" t="s">
+      <c r="H6" s="77"/>
+      <c r="I6" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="111" t="s">
+      <c r="J6" s="105" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4200,11 +4187,11 @@
       <c r="G7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="112" t="s">
+      <c r="H7" s="77"/>
+      <c r="I7" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="106" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4221,14 +4208,14 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="24"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="80" t="s">
+      <c r="H8" s="83"/>
+      <c r="I8" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="111" t="s">
+      <c r="J8" s="105" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4254,9 +4241,9 @@
       <c r="G9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="111" t="s">
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="105" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4282,11 +4269,11 @@
       <c r="G10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="111" t="s">
+      <c r="H10" s="77"/>
+      <c r="I10" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="105" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4310,13 +4297,13 @@
         <v>248</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="112" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="I11" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="106" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4342,11 +4329,11 @@
       <c r="G12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="112" t="s">
+      <c r="H12" s="77"/>
+      <c r="I12" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="106" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4366,17 +4353,17 @@
       <c r="E13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="80" t="s">
+      <c r="H13" s="85"/>
+      <c r="I13" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="111" t="s">
+      <c r="J13" s="105" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4396,17 +4383,17 @@
       <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G14" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="80">
+      <c r="G14" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="85"/>
+      <c r="I14" s="78">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="111" t="s">
+      <c r="J14" s="105" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4432,11 +4419,11 @@
       <c r="G15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="111" t="s">
+      <c r="H15" s="77"/>
+      <c r="I15" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="105" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4454,7 +4441,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -4462,11 +4449,11 @@
       <c r="G16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="111" t="s">
+      <c r="H16" s="77"/>
+      <c r="I16" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="105" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4483,20 +4470,20 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="42" t="s">
         <v>248</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91" t="s">
+      <c r="G17" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="113"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
@@ -4510,19 +4497,19 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G18" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="80" t="s">
+      <c r="G18" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="111" t="s">
+      <c r="J18" s="105" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4539,51 +4526,51 @@
       <c r="D19" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="43" t="s">
+      <c r="E19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="H19" s="83"/>
+      <c r="I19" s="78">
+        <v>3703994</v>
+      </c>
+      <c r="J19" s="105" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="100"/>
+      <c r="I20" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="107" t="s">
         <v>295</v>
-      </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="80">
-        <v>3703994</v>
-      </c>
-      <c r="J19" s="111" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="107" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="114" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4602,17 +4589,17 @@
       <c r="E21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G21" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="80" t="s">
+      <c r="G21" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="105" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4630,19 +4617,19 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="85"/>
-      <c r="I22" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="111" t="s">
+      <c r="J22" s="105" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4668,11 +4655,11 @@
       <c r="G23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="112" t="s">
+      <c r="H23" s="77"/>
+      <c r="I23" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="106" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4689,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4709,32 +4696,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="H1" s="51"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4763,13 +4750,13 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="84">
+      <c r="H3" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="82">
         <v>50004</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="79" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4795,13 +4782,13 @@
       <c r="G4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="84">
+      <c r="H4" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="82">
         <v>43</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="79" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4827,13 +4814,13 @@
       <c r="G5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="84">
+      <c r="H5" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="82">
         <v>1</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="79" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4859,13 +4846,13 @@
       <c r="G6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="84">
+      <c r="H6" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="82">
         <v>39035</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="79" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4891,13 +4878,13 @@
       <c r="G7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="84">
+      <c r="H7" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="82">
         <v>63</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="79" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4923,19 +4910,19 @@
       <c r="G8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="84">
+      <c r="H8" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="82">
         <v>371091</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -4946,14 +4933,14 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="119" t="s">
-        <v>307</v>
+      <c r="E9" s="112" t="s">
+        <v>303</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
@@ -4968,18 +4955,18 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="70" t="s">
-        <v>294</v>
+      <c r="E10" s="68" t="s">
+        <v>291</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="81" t="s">
+      <c r="H10" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="79" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4996,18 +4983,18 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="71" t="s">
-        <v>304</v>
+      <c r="E11" s="69" t="s">
+        <v>300</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="81" t="s">
+      <c r="H11" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="79" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5024,18 +5011,18 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>293</v>
+      <c r="E12" s="42" t="s">
+        <v>290</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="81" t="s">
+      <c r="H12" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="79" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5052,46 +5039,46 @@
       <c r="D13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="70" t="s">
-        <v>303</v>
+      <c r="E13" s="68" t="s">
+        <v>299</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="81" t="s">
+      <c r="H13" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="79" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="81" t="s">
+      <c r="C14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="79" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5117,13 +5104,13 @@
       <c r="G15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="84">
+      <c r="H15" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="82">
         <v>5363</v>
       </c>
-      <c r="J15" s="81" t="s">
+      <c r="J15" s="79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5149,13 +5136,13 @@
       <c r="G16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="84" t="s">
+      <c r="H16" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="88" t="s">
+      <c r="J16" s="84" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5181,13 +5168,13 @@
       <c r="G17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="84" t="s">
+      <c r="H17" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="88" t="s">
+      <c r="J17" s="84" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5213,13 +5200,13 @@
       <c r="G18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="84" t="s">
+      <c r="H18" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="81" t="s">
+      <c r="J18" s="79" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5245,13 +5232,13 @@
       <c r="G19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="84" t="s">
+      <c r="H19" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="88" t="s">
+      <c r="J19" s="84" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5277,13 +5264,13 @@
       <c r="G20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="84" t="s">
+      <c r="H20" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="81" t="s">
+      <c r="J20" s="79" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5309,13 +5296,13 @@
       <c r="G21" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="88" t="s">
+      <c r="H21" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="84" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5341,18 +5328,18 @@
       <c r="G22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="84">
+      <c r="H22" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="82">
         <v>5200</v>
       </c>
-      <c r="J22" s="81" t="s">
+      <c r="J22" s="79" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="74" t="s">
         <v>243</v>
       </c>
       <c r="B23" s="36" t="s">
@@ -5367,19 +5354,19 @@
       <c r="E23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="H23" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="84">
+      <c r="G23" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="82">
         <v>1</v>
       </c>
-      <c r="J23" s="81" t="s">
+      <c r="J23" s="79" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5399,19 +5386,19 @@
       <c r="E24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="H24" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="84" t="s">
+      <c r="G24" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="81" t="s">
+      <c r="J24" s="79" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5431,19 +5418,19 @@
       <c r="E25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G25" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="84" t="s">
+      <c r="G25" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="81" t="s">
+      <c r="J25" s="79" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5463,19 +5450,19 @@
       <c r="E26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G26" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="H26" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="84" t="s">
+      <c r="G26" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="81" t="s">
+      <c r="J26" s="79" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5486,7 +5473,7 @@
       <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
@@ -5495,19 +5482,19 @@
       <c r="E27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="G27" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="H27" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="84" t="s">
+      <c r="G27" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="81" t="s">
+      <c r="J27" s="79" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5533,13 +5520,13 @@
       <c r="G28" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="81" t="s">
+      <c r="H28" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="79" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5563,15 +5550,15 @@
         <v>248</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="H29" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="94">
+        <v>286</v>
+      </c>
+      <c r="H29" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="90">
         <v>44196</v>
       </c>
-      <c r="J29" s="81" t="s">
+      <c r="J29" s="79" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5595,15 +5582,15 @@
         <v>248</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="H30" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="94">
+        <v>285</v>
+      </c>
+      <c r="H30" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="90">
         <v>43831</v>
       </c>
-      <c r="J30" s="81" t="s">
+      <c r="J30" s="79" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5620,27 +5607,27 @@
       <c r="D31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="72" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="G31" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="84" t="s">
+      <c r="G31" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="81" t="s">
+      <c r="J31" s="79" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="74" t="s">
         <v>244</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -5658,16 +5645,16 @@
       <c r="F32" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="G32" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="84">
+      <c r="G32" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="82">
         <v>0</v>
       </c>
-      <c r="J32" s="81" t="s">
+      <c r="J32" s="79" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5678,28 +5665,28 @@
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="72" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="G33" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="H33" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="81" t="s">
+      <c r="G33" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="79" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5725,13 +5712,13 @@
       <c r="G34" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="84" t="s">
+      <c r="H34" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="88" t="s">
+      <c r="J34" s="84" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5757,13 +5744,13 @@
       <c r="G35" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="84" t="s">
+      <c r="H35" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="81" t="s">
+      <c r="J35" s="79" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5789,13 +5776,13 @@
       <c r="G36" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="84" t="s">
+      <c r="H36" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="81" t="s">
+      <c r="J36" s="79" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5806,28 +5793,28 @@
       <c r="B37" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="75" t="s">
-        <v>305</v>
+      <c r="E37" s="73" t="s">
+        <v>301</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="95">
+      <c r="G37" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="91">
         <v>43874</v>
       </c>
-      <c r="J37" s="81" t="s">
+      <c r="J37" s="79" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5851,20 +5838,20 @@
         <v>248</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="H38" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="95">
+        <v>276</v>
+      </c>
+      <c r="H38" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="91">
         <v>33187</v>
       </c>
-      <c r="J38" s="88" t="s">
+      <c r="J38" s="84" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="74" t="s">
         <v>245</v>
       </c>
       <c r="B39" s="36" t="s">
@@ -5885,9 +5872,9 @@
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="92"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="84"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
@@ -5911,13 +5898,13 @@
       <c r="G40" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="81" t="s">
+      <c r="H40" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="79" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5941,13 +5928,13 @@
         <v>248</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="H41" s="89"/>
-      <c r="I41" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="81" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" s="85"/>
+      <c r="I41" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="79" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5973,13 +5960,13 @@
       <c r="G42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="84" t="s">
+      <c r="H42" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="81" t="s">
+      <c r="J42" s="79" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6005,19 +5992,19 @@
       <c r="G43" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="88" t="s">
+      <c r="H43" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="84" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6030,15 +6017,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="116" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="117" t="s">
-        <v>300</v>
-      </c>
-      <c r="J44" s="118" t="s">
-        <v>301</v>
+      <c r="G44" s="108"/>
+      <c r="H44" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="110" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" s="111" t="s">
+        <v>298</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6069,13 +6056,13 @@
       <c r="G45" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="81" t="s">
+      <c r="H45" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="79" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6101,19 +6088,19 @@
       <c r="G46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="84" t="s">
+      <c r="H46" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="88" t="s">
+      <c r="J46" s="84" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>105</v>
@@ -6133,13 +6120,13 @@
       <c r="G47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="84" t="s">
+      <c r="H47" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="81" t="s">
+      <c r="J47" s="79" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6165,13 +6152,13 @@
       <c r="G48" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="84" t="s">
+      <c r="H48" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="81" t="s">
+      <c r="J48" s="79" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6196,32 +6183,32 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Montana/WaterAllocation/MT_POD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Montana/WaterAllocation/MT_POD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA335D43-2026-4E04-8DF9-4E65A8B307C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8757D69A-0CFC-4FC5-B737-C907500B7235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -1004,7 +1004,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1274,6 +1274,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1792,7 +1799,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2128,6 +2135,18 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4676,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5594,35 +5613,35 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:10" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="24" t="s">
+      <c r="E31" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="H31" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="82" t="s">
+      <c r="H31" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="79" t="s">
+      <c r="J31" s="117" t="s">
         <v>241</v>
       </c>
     </row>
